--- a/data/trans_orig/P23_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P23_R-Habitat-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>319281</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>291092</v>
+        <v>292200</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>345960</v>
+        <v>346346</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4600507070672284</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4194338041600666</v>
+        <v>0.4210296544116876</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4984927053180274</v>
+        <v>0.4990484230249369</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>162</v>
@@ -764,19 +764,19 @@
         <v>161799</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>141434</v>
+        <v>142281</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>183873</v>
+        <v>184864</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2350530985872548</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.205467244526382</v>
+        <v>0.2066985337050713</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2671211430488352</v>
+        <v>0.2685602855831267</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>472</v>
@@ -785,19 +785,19 @@
         <v>481080</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>443622</v>
+        <v>448670</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>515180</v>
+        <v>518072</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3480126114566615</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3209160473714697</v>
+        <v>0.3245675814331809</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3726806655658828</v>
+        <v>0.3747730371207682</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>374731</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>348052</v>
+        <v>347666</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>402920</v>
+        <v>401812</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5399492929327715</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5015072946819726</v>
+        <v>0.5009515769750632</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5805661958399335</v>
+        <v>0.5789703455883125</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>534</v>
@@ -835,19 +835,19 @@
         <v>526552</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>504478</v>
+        <v>503487</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>546917</v>
+        <v>546070</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7649469014127452</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7328788569511647</v>
+        <v>0.7314397144168735</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.794532755473618</v>
+        <v>0.7933014662949287</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>907</v>
@@ -856,19 +856,19 @@
         <v>901283</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>867183</v>
+        <v>864291</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>938741</v>
+        <v>933693</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6519873885433385</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6273193344341172</v>
+        <v>0.6252269628792319</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6790839526285303</v>
+        <v>0.675432418566819</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>406281</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>375047</v>
+        <v>377022</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>438600</v>
+        <v>442535</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4228749663509549</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3903661770180277</v>
+        <v>0.3924219093700295</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4565145780651763</v>
+        <v>0.4606106062415923</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>215</v>
@@ -981,19 +981,19 @@
         <v>227136</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>200548</v>
+        <v>201923</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>253041</v>
+        <v>255698</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2345490109041656</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2070934568468054</v>
+        <v>0.2085138796997213</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2613003287457177</v>
+        <v>0.2640435293176515</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>593</v>
@@ -1002,19 +1002,19 @@
         <v>633416</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>594331</v>
+        <v>588303</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>681938</v>
+        <v>677104</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3283393035021527</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3080788246038022</v>
+        <v>0.304954599885855</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3534913956997645</v>
+        <v>0.3509856724554871</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>554477</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>522158</v>
+        <v>518223</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>585711</v>
+        <v>583736</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5771250336490451</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5434854219348237</v>
+        <v>0.5393893937584077</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6096338229819724</v>
+        <v>0.6075780906299704</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>693</v>
@@ -1052,19 +1052,19 @@
         <v>741257</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>715352</v>
+        <v>712695</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>767845</v>
+        <v>766470</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7654509890958344</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7386996712542823</v>
+        <v>0.7359564706823486</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7929065431531946</v>
+        <v>0.7914861203002788</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1210</v>
@@ -1073,19 +1073,19 @@
         <v>1295735</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1247213</v>
+        <v>1252047</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1334820</v>
+        <v>1340848</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6716606964978473</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6465086043002353</v>
+        <v>0.6490143275445128</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6919211753961977</v>
+        <v>0.695045400114145</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>253975</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>226620</v>
+        <v>227583</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>279349</v>
+        <v>282296</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3743139718505257</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3339970234399292</v>
+        <v>0.3354170419108037</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4117107620221527</v>
+        <v>0.4160531593117192</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>176</v>
@@ -1198,19 +1198,19 @@
         <v>170001</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>147769</v>
+        <v>147529</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>194321</v>
+        <v>191773</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2485973124029964</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2160874817989034</v>
+        <v>0.215735350933913</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2841604543173117</v>
+        <v>0.2804345540674221</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>414</v>
@@ -1219,19 +1219,19 @@
         <v>423976</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>391837</v>
+        <v>390594</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>455371</v>
+        <v>459455</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.311209620000429</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2876181026769896</v>
+        <v>0.2867060769078785</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3342537594935577</v>
+        <v>0.3372521644642045</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>424534</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>399160</v>
+        <v>396213</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>451889</v>
+        <v>450926</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6256860281494743</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5882892379778472</v>
+        <v>0.5839468406882807</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6660029765600709</v>
+        <v>0.6645829580891962</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>520</v>
@@ -1269,19 +1269,19 @@
         <v>513840</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>489520</v>
+        <v>492068</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>536072</v>
+        <v>536312</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7514026875970036</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7158395456826884</v>
+        <v>0.719565445932578</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7839125182010966</v>
+        <v>0.7842646490660871</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>923</v>
@@ -1290,19 +1290,19 @@
         <v>938374</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>906979</v>
+        <v>902895</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>970513</v>
+        <v>971756</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.688790379999571</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6657462405064419</v>
+        <v>0.6627478355357954</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7123818973230103</v>
+        <v>0.7132939230921215</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>405745</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>378198</v>
+        <v>375613</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>433850</v>
+        <v>435171</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4306252928932724</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4013894951091677</v>
+        <v>0.3986464458059401</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4604539008621123</v>
+        <v>0.4618561642207566</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>292</v>
@@ -1415,19 +1415,19 @@
         <v>304394</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>277138</v>
+        <v>278876</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>335862</v>
+        <v>335335</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2930780209602041</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2668346626230007</v>
+        <v>0.2685080134819308</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3233755043417079</v>
+        <v>0.3228680650395919</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>715</v>
@@ -1436,19 +1436,19 @@
         <v>710139</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>666624</v>
+        <v>662796</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>752652</v>
+        <v>748892</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3585050443331353</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3365372810102907</v>
+        <v>0.334604474848426</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3799669929244319</v>
+        <v>0.3780690793489973</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>536477</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>508372</v>
+        <v>507051</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>564024</v>
+        <v>566609</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5693747071067276</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5395460991378875</v>
+        <v>0.5381438357792434</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5986105048908321</v>
+        <v>0.60135355419406</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>705</v>
@@ -1486,19 +1486,19 @@
         <v>734218</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>702750</v>
+        <v>703277</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>761474</v>
+        <v>759736</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7069219790397959</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6766244956582922</v>
+        <v>0.6771319349604085</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7331653373769993</v>
+        <v>0.7314919865180692</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1276</v>
@@ -1507,19 +1507,19 @@
         <v>1270695</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1228182</v>
+        <v>1231942</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1314210</v>
+        <v>1318038</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6414949556668647</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.620033007075568</v>
+        <v>0.6219309206510027</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6634627189897092</v>
+        <v>0.6653955251515739</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>1385281</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1325228</v>
+        <v>1330127</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1441345</v>
+        <v>1438554</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4229219431522778</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4045878954716592</v>
+        <v>0.4060834222805361</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.440038013342917</v>
+        <v>0.4391859405449984</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>845</v>
@@ -1632,19 +1632,19 @@
         <v>863330</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>812443</v>
+        <v>811508</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>912082</v>
+        <v>918012</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2554837841463889</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2404247837439934</v>
+        <v>0.2401481971050369</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.269910911952388</v>
+        <v>0.2716658587610183</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2194</v>
@@ -1653,19 +1653,19 @@
         <v>2248611</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2168802</v>
+        <v>2175533</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2334437</v>
+        <v>2329788</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3378983182442462</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3259054693271328</v>
+        <v>0.3269168435941037</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3507953464992103</v>
+        <v>0.3500966841717661</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>1890220</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1834156</v>
+        <v>1836947</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1950273</v>
+        <v>1945374</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5770780568477222</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.559961986657083</v>
+        <v>0.5608140594550016</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5954121045283408</v>
+        <v>0.5939165777194639</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2452</v>
@@ -1703,19 +1703,19 @@
         <v>2515867</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2467115</v>
+        <v>2461185</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2566754</v>
+        <v>2567689</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7445162158536111</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7300890880476121</v>
+        <v>0.7283341412389818</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7595752162560068</v>
+        <v>0.7598518028949631</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4316</v>
@@ -1724,19 +1724,19 @@
         <v>4406087</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4320261</v>
+        <v>4324910</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4485896</v>
+        <v>4479165</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6621016817557539</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.64920465350079</v>
+        <v>0.649903315828234</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6740945306728673</v>
+        <v>0.6730831564058967</v>
       </c>
     </row>
     <row r="18">
@@ -2068,19 +2068,19 @@
         <v>269583</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>244361</v>
+        <v>245827</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>298305</v>
+        <v>295887</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3832190912037056</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3473661934208899</v>
+        <v>0.3494497662180601</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4240480171288122</v>
+        <v>0.4206110474275511</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>148</v>
@@ -2089,19 +2089,19 @@
         <v>161840</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>139098</v>
+        <v>141000</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>185709</v>
+        <v>186175</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2321791396024836</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.199551823276968</v>
+        <v>0.2022811530484033</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.266421561120867</v>
+        <v>0.2670895378091424</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>408</v>
@@ -2110,19 +2110,19 @@
         <v>431423</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>397340</v>
+        <v>395704</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>470096</v>
+        <v>465774</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3080452450767299</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2837088020364163</v>
+        <v>0.282541111790701</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3356583224444362</v>
+        <v>0.3325726858136535</v>
       </c>
     </row>
     <row r="5">
@@ -2139,19 +2139,19 @@
         <v>433886</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>405164</v>
+        <v>407582</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>459108</v>
+        <v>457642</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6167809087962944</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5759519828711879</v>
+        <v>0.5793889525724488</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6526338065791103</v>
+        <v>0.6505502337819399</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>502</v>
@@ -2160,19 +2160,19 @@
         <v>535210</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>511341</v>
+        <v>510875</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>557952</v>
+        <v>556050</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7678208603975164</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.733578438879133</v>
+        <v>0.7329104621908576</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.800448176723032</v>
+        <v>0.7977188469515967</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>916</v>
@@ -2181,19 +2181,19 @@
         <v>969096</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>930423</v>
+        <v>934745</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1003179</v>
+        <v>1004815</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6919547549232701</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6643416775555638</v>
+        <v>0.6674273141863465</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7162911979635836</v>
+        <v>0.717458888209299</v>
       </c>
     </row>
     <row r="6">
@@ -2285,19 +2285,19 @@
         <v>405498</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>373537</v>
+        <v>373560</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>438496</v>
+        <v>436861</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3987523221202948</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3673230264010695</v>
+        <v>0.3673452145034813</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.431200810212662</v>
+        <v>0.4295934303474466</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>265</v>
@@ -2306,19 +2306,19 @@
         <v>290347</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>261581</v>
+        <v>259100</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>320376</v>
+        <v>321217</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.281294110453652</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2534244259229135</v>
+        <v>0.251020830810768</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3103866698934956</v>
+        <v>0.311201606821336</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>636</v>
@@ -2327,19 +2327,19 @@
         <v>695846</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>650215</v>
+        <v>653785</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>742921</v>
+        <v>746006</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3395856661931019</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.317317045708837</v>
+        <v>0.3190592938722643</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3625595028652723</v>
+        <v>0.3640648870100465</v>
       </c>
     </row>
     <row r="8">
@@ -2356,19 +2356,19 @@
         <v>611420</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>578422</v>
+        <v>580057</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>643381</v>
+        <v>643358</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6012476778797051</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5687991897873376</v>
+        <v>0.5704065696525533</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6326769735989296</v>
+        <v>0.6326547854965187</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>675</v>
@@ -2377,19 +2377,19 @@
         <v>741837</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>711808</v>
+        <v>710967</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>770603</v>
+        <v>773084</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.718705889546348</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6896133301065045</v>
+        <v>0.6887983931786641</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7465755740770865</v>
+        <v>0.7489791691892319</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1239</v>
@@ -2398,19 +2398,19 @@
         <v>1353256</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1306181</v>
+        <v>1303096</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1398887</v>
+        <v>1395317</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6604143338068981</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6374404971347277</v>
+        <v>0.6359351129899536</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.682682954291163</v>
+        <v>0.6809407061277357</v>
       </c>
     </row>
     <row r="9">
@@ -2502,19 +2502,19 @@
         <v>314677</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>286330</v>
+        <v>287030</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>342687</v>
+        <v>342474</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4153477699758188</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3779322481479724</v>
+        <v>0.3788560553252171</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4523185424412167</v>
+        <v>0.4520374260105381</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>206</v>
@@ -2523,19 +2523,19 @@
         <v>229896</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>202989</v>
+        <v>204123</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>258276</v>
+        <v>255690</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2961896449265515</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2615239167423789</v>
+        <v>0.2629845633198896</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3327536433676662</v>
+        <v>0.3294224209672453</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>491</v>
@@ -2544,19 +2544,19 @@
         <v>544573</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>503995</v>
+        <v>504613</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>580714</v>
+        <v>582589</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3550479693391527</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3285918892056846</v>
+        <v>0.3289949830317248</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3786112877996913</v>
+        <v>0.3798334512064845</v>
       </c>
     </row>
     <row r="11">
@@ -2573,19 +2573,19 @@
         <v>442946</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>414936</v>
+        <v>415149</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>471293</v>
+        <v>470593</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5846522300241812</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5476814575587835</v>
+        <v>0.5479625739894619</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6220677518520276</v>
+        <v>0.621143944674783</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>498</v>
@@ -2594,19 +2594,19 @@
         <v>546282</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>517902</v>
+        <v>520488</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>573189</v>
+        <v>572055</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7038103550734485</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6672463566323338</v>
+        <v>0.6705775790327547</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7384760832576212</v>
+        <v>0.7370154366801105</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>902</v>
@@ -2615,19 +2615,19 @@
         <v>989228</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>953087</v>
+        <v>951212</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1029806</v>
+        <v>1029188</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6449520306608473</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6213887122003088</v>
+        <v>0.6201665487935155</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6714081107943155</v>
+        <v>0.6710050169682753</v>
       </c>
     </row>
     <row r="12">
@@ -2719,19 +2719,19 @@
         <v>365278</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>336733</v>
+        <v>333993</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>400536</v>
+        <v>393799</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3854206867357891</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3553009983466789</v>
+        <v>0.3524103761030844</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4226226533079465</v>
+        <v>0.4155141687487504</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>279</v>
@@ -2740,19 +2740,19 @@
         <v>294186</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>265327</v>
+        <v>265308</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>324949</v>
+        <v>325351</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.279933484156829</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2524727860927176</v>
+        <v>0.2524544313721075</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3092057788744755</v>
+        <v>0.3095886709146562</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>633</v>
@@ -2761,19 +2761,19 @@
         <v>659465</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>615576</v>
+        <v>618811</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>702000</v>
+        <v>703160</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3299543249588728</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3079952902830803</v>
+        <v>0.3096138613173255</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3512364517898185</v>
+        <v>0.3518168905589831</v>
       </c>
     </row>
     <row r="14">
@@ -2790,19 +2790,19 @@
         <v>582461</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>547203</v>
+        <v>553940</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>611006</v>
+        <v>613746</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6145793132642109</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5773773466920535</v>
+        <v>0.5844858312512496</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6446990016533211</v>
+        <v>0.6475896238969155</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>723</v>
@@ -2811,19 +2811,19 @@
         <v>756729</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>725966</v>
+        <v>725564</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>785588</v>
+        <v>785607</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7200665158431711</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6907942211255247</v>
+        <v>0.6904113290853438</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7475272139072828</v>
+        <v>0.7475455686278925</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1279</v>
@@ -2832,19 +2832,19 @@
         <v>1339189</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1296654</v>
+        <v>1295494</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1383078</v>
+        <v>1379843</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6700456750411271</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6487635482101815</v>
+        <v>0.648183109441017</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6920047097169196</v>
+        <v>0.6903861386826744</v>
       </c>
     </row>
     <row r="15">
@@ -2936,19 +2936,19 @@
         <v>1355036</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1297341</v>
+        <v>1298671</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1418034</v>
+        <v>1419852</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3955445672003022</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3787028203037276</v>
+        <v>0.3790909986768302</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.413933929762612</v>
+        <v>0.4144648272170601</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>898</v>
@@ -2957,19 +2957,19 @@
         <v>976270</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>921895</v>
+        <v>922351</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1035444</v>
+        <v>1033349</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2745163570971233</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2592265882613503</v>
+        <v>0.2593548981087217</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2911553132794867</v>
+        <v>0.2905662617000394</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2168</v>
@@ -2978,19 +2978,19 @@
         <v>2331306</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2254274</v>
+        <v>2252800</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2417674</v>
+        <v>2420969</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3338987358651462</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.322865883583975</v>
+        <v>0.322654753155259</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3462686481416593</v>
+        <v>0.3467405516425792</v>
       </c>
     </row>
     <row r="17">
@@ -3007,19 +3007,19 @@
         <v>2070713</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2007715</v>
+        <v>2005897</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2128408</v>
+        <v>2127078</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6044554327996978</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.586066070237388</v>
+        <v>0.5855351727829402</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6212971796962724</v>
+        <v>0.62090900132317</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2398</v>
@@ -3028,19 +3028,19 @@
         <v>2580057</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2520883</v>
+        <v>2522978</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2634432</v>
+        <v>2633976</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7254836429028767</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7088446867205133</v>
+        <v>0.7094337382999606</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7407734117386497</v>
+        <v>0.740645101891278</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4336</v>
@@ -3049,19 +3049,19 @@
         <v>4650770</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4564402</v>
+        <v>4561107</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4727802</v>
+        <v>4729276</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6661012641348538</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6537313518583407</v>
+        <v>0.6532594483574208</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6771341164160251</v>
+        <v>0.6773452468447411</v>
       </c>
     </row>
     <row r="18">
@@ -3393,19 +3393,19 @@
         <v>250552</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>225290</v>
+        <v>225391</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>277645</v>
+        <v>275699</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3712976079623061</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3338611676095604</v>
+        <v>0.3340109672870744</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4114474555116718</v>
+        <v>0.4085643038966584</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>169</v>
@@ -3414,19 +3414,19 @@
         <v>169362</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>147297</v>
+        <v>148779</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>194496</v>
+        <v>193810</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.252128556296018</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2192795529244287</v>
+        <v>0.2214870013765432</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.289545029748922</v>
+        <v>0.2885237730815673</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>406</v>
@@ -3435,19 +3435,19 @@
         <v>419914</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>388781</v>
+        <v>387985</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>454656</v>
+        <v>454591</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3118489331557228</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2887280781840797</v>
+        <v>0.2881365515066999</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.337650261770739</v>
+        <v>0.3376017232569981</v>
       </c>
     </row>
     <row r="5">
@@ -3464,19 +3464,19 @@
         <v>424248</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>397155</v>
+        <v>399101</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>449510</v>
+        <v>449409</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.628702392037694</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5885525444883282</v>
+        <v>0.5914356961033416</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.666138832390439</v>
+        <v>0.6659890327129255</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>496</v>
@@ -3485,19 +3485,19 @@
         <v>502368</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>477234</v>
+        <v>477920</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>524433</v>
+        <v>522951</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.747871443703982</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7104549702510781</v>
+        <v>0.7114762269184328</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7807204470755716</v>
+        <v>0.7785129986234569</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>911</v>
@@ -3506,19 +3506,19 @@
         <v>926616</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>891874</v>
+        <v>891939</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>957749</v>
+        <v>958545</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6881510668442772</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6623497382292608</v>
+        <v>0.6623982767430019</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7112719218159204</v>
+        <v>0.7118634484933001</v>
       </c>
     </row>
     <row r="6">
@@ -3610,19 +3610,19 @@
         <v>339788</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>310570</v>
+        <v>308785</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>371056</v>
+        <v>372542</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3326825074927551</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3040754051957479</v>
+        <v>0.3023276519626538</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3632965808293359</v>
+        <v>0.3647512228670966</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>261</v>
@@ -3631,19 +3631,19 @@
         <v>270928</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>242220</v>
+        <v>242540</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>300505</v>
+        <v>300064</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.260011308724465</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2324596907240454</v>
+        <v>0.23276725233721</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2883962436804103</v>
+        <v>0.2879729815847988</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>569</v>
@@ -3652,19 +3652,19 @@
         <v>610716</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>569766</v>
+        <v>564986</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>656043</v>
+        <v>652009</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2959836783618245</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2761373074612729</v>
+        <v>0.27382045089776</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3179513209820011</v>
+        <v>0.3159962910335922</v>
       </c>
     </row>
     <row r="8">
@@ -3681,19 +3681,19 @@
         <v>681571</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>650303</v>
+        <v>648817</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>710789</v>
+        <v>712574</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6673174925072448</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6367034191706641</v>
+        <v>0.6352487771329028</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6959245948042521</v>
+        <v>0.6976723480373461</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>715</v>
@@ -3702,19 +3702,19 @@
         <v>771057</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>741480</v>
+        <v>741921</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>799765</v>
+        <v>799445</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.739988691275535</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7116037563195896</v>
+        <v>0.7120270184152012</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7675403092759546</v>
+        <v>0.76723274766279</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1357</v>
@@ -3723,19 +3723,19 @@
         <v>1452628</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1407301</v>
+        <v>1411335</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1493578</v>
+        <v>1498358</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7040163216381754</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6820486790179988</v>
+        <v>0.6840037089664077</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7238626925387271</v>
+        <v>0.7261795491022399</v>
       </c>
     </row>
     <row r="9">
@@ -3827,19 +3827,19 @@
         <v>312102</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>284660</v>
+        <v>285531</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>340487</v>
+        <v>340728</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4113700669262864</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3752001963324759</v>
+        <v>0.3763482150083723</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4487834115064893</v>
+        <v>0.4491013083903592</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>219</v>
@@ -3848,19 +3848,19 @@
         <v>226802</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>202815</v>
+        <v>202504</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>252723</v>
+        <v>250364</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2896963539763999</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2590578462862757</v>
+        <v>0.2586604807277921</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.322806086866774</v>
+        <v>0.3197919569339762</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>498</v>
@@ -3869,19 +3869,19 @@
         <v>538903</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>497359</v>
+        <v>501629</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>577750</v>
+        <v>581539</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3495779084555246</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3226286997409406</v>
+        <v>0.3253987522960317</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3747771021562918</v>
+        <v>0.3772352497557493</v>
       </c>
     </row>
     <row r="11">
@@ -3898,19 +3898,19 @@
         <v>446586</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>418201</v>
+        <v>417960</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>474028</v>
+        <v>473157</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5886299330737136</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5512165884935109</v>
+        <v>0.5508986916096409</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6247998036675241</v>
+        <v>0.6236517849916278</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>515</v>
@@ -3919,19 +3919,19 @@
         <v>556093</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>530172</v>
+        <v>532531</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>580080</v>
+        <v>580391</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7103036460236002</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.677193913133226</v>
+        <v>0.6802080430660233</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7409421537137244</v>
+        <v>0.7413395192722079</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>931</v>
@@ -3940,19 +3940,19 @@
         <v>1002679</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>963832</v>
+        <v>960043</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1044223</v>
+        <v>1039953</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6504220915444755</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6252228978437085</v>
+        <v>0.6227647502442507</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6773713002590595</v>
+        <v>0.6746012477039681</v>
       </c>
     </row>
     <row r="12">
@@ -4044,19 +4044,19 @@
         <v>287292</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>259926</v>
+        <v>260802</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>317191</v>
+        <v>317397</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3064229308896143</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2772345395336055</v>
+        <v>0.278168561339841</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3383124376896223</v>
+        <v>0.3385321920567751</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>246</v>
@@ -4065,19 +4065,19 @@
         <v>257384</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>228170</v>
+        <v>231549</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>288509</v>
+        <v>288923</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.24689271458939</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2188697697761981</v>
+        <v>0.2221102519082762</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2767488012029409</v>
+        <v>0.277146288713232</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>529</v>
@@ -4086,19 +4086,19 @@
         <v>544676</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>501358</v>
+        <v>502466</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>584265</v>
+        <v>585960</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2750805228518771</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.253203221194175</v>
+        <v>0.2537628807180721</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2950741195091208</v>
+        <v>0.2959302359685319</v>
       </c>
     </row>
     <row r="14">
@@ -4115,19 +4115,19 @@
         <v>650275</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>620376</v>
+        <v>620170</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>677641</v>
+        <v>676765</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6935770691103857</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6616875623103777</v>
+        <v>0.6614678079432249</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7227654604663944</v>
+        <v>0.721831438660159</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>712</v>
@@ -4136,19 +4136,19 @@
         <v>785110</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>753985</v>
+        <v>753571</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>814324</v>
+        <v>810945</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.75310728541061</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7232511987970591</v>
+        <v>0.7228537112867679</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7811302302238019</v>
+        <v>0.7778897480917237</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1361</v>
@@ -4157,19 +4157,19 @@
         <v>1435385</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1395796</v>
+        <v>1394101</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1478703</v>
+        <v>1477595</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7249194771481229</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7049258804908793</v>
+        <v>0.7040697640314681</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7467967788058251</v>
+        <v>0.7462371192819279</v>
       </c>
     </row>
     <row r="15">
@@ -4261,19 +4261,19 @@
         <v>1189733</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1132708</v>
+        <v>1131547</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1245818</v>
+        <v>1245998</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3507040825745484</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3338943618818603</v>
+        <v>0.3335521400303301</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3672363941641641</v>
+        <v>0.3672893609873641</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>895</v>
@@ -4282,19 +4282,19 @@
         <v>924476</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>871722</v>
+        <v>869142</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>978327</v>
+        <v>981830</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2612175840442336</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2463114498739905</v>
+        <v>0.2455825342713981</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.276433537667205</v>
+        <v>0.2774233471219599</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2002</v>
@@ -4303,19 +4303,19 @@
         <v>2114209</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2028994</v>
+        <v>2039546</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2192295</v>
+        <v>2196204</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3050139446573804</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2927199913113854</v>
+        <v>0.294242305251616</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3162793045443187</v>
+        <v>0.3168432232446354</v>
       </c>
     </row>
     <row r="17">
@@ -4332,19 +4332,19 @@
         <v>2202681</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2146596</v>
+        <v>2146416</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2259706</v>
+        <v>2260867</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6492959174254516</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.632763605835836</v>
+        <v>0.632710639012636</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6661056381181397</v>
+        <v>0.6664478599696702</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2438</v>
@@ -4353,19 +4353,19 @@
         <v>2614627</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2560776</v>
+        <v>2557273</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2667381</v>
+        <v>2669961</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7387824159557664</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.723566462332795</v>
+        <v>0.7225766528780402</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7536885501260094</v>
+        <v>0.7544174657286018</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4560</v>
@@ -4374,19 +4374,19 @@
         <v>4817308</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4739222</v>
+        <v>4735313</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4902523</v>
+        <v>4891971</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6949860553426196</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6837206954556813</v>
+        <v>0.683156776755365</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7072800086886146</v>
+        <v>0.705757694748384</v>
       </c>
     </row>
     <row r="18">
